--- a/biology/Zoologie/American_wirehair/American_wirehair.xlsx
+++ b/biology/Zoologie/American_wirehair/American_wirehair.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'American Wirehair est une race de chats originaire des États-Unis. Ce chat est caractérisé par sa robe à poils frisés.
@@ -512,7 +524,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette race descend de l'American shorthair. Il apparut dans une portée d'American shorthairs en 1966 dans l'État de New York. Un des mâles de la portée, le seul roux avait cette fourrure. Le propriétaire du chaton fit appel à une éleveuse de chats de variété Rex, qui l'acheta avec une des sœurs du chaton qui avait le poil normal. Les deux furent croisés et donnèrent naissance à une portée de chats aux poils frisés. C'est ainsi que commença le programme d'élevage de la race.
 Le poil frisé et crépu est dû à une mutation génétique spontanée. Le gène est dominant, c'est pourquoi aujourd'hui encore il est croisé avec des American shorthairs.
@@ -545,7 +559,9 @@
           <t>Standards</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'American Wirehair a gardé le physique de ses ancêtres qui étaient des chats de ferme. Le physique de ce chat doit être équilibré et aucun trait n'est exagéré.
 Le corps est rectangulaire et donne une impression de puissance, avec une ossature forte. Les pattes sont de longueur moyenne, robustes et parallèles entre elles. Les pieds sont ronds. La queue est épaisse à la base et s'affine vers une extrémité arrondie.
@@ -583,7 +599,9 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'American Wirehair est un chat sociable, affectueux et d'un caractère équilibré. Habile et robuste, il aime vagabonder à l'extérieur et se montre sociable envers ses congénères et les autres animaux qu'il peut rencontrer. Son tempérament est proche de celui de l'American Shorthair.
 </t>
@@ -614,9 +632,11 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'American Wirehair a très peu de soucis de santé. Son espérance de vie reste faible pour un chat, entre sept et douze ans[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'American Wirehair a très peu de soucis de santé. Son espérance de vie reste faible pour un chat, entre sept et douze ans.
 </t>
         </is>
       </c>
